--- a/data/trans_dic/P21D_2_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21D_2_R-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,41</t>
+          <t>0,0; 1,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,42</t>
+          <t>0,0; 5,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 3,13</t>
+          <t>0,15; 3,11</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,72</t>
+          <t>1,46; 5,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,51</t>
+          <t>1,45; 4,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,57</t>
+          <t>1,88; 4,53</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,37</t>
+          <t>0,34; 2,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,41</t>
+          <t>0,73; 2,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,95</t>
+          <t>0,68; 1,99</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,55</t>
+          <t>1,55; 5,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,33</t>
+          <t>0,64; 3,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,55</t>
+          <t>1,29; 3,55</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,25</t>
+          <t>0,24; 2,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,07; 9,43</t>
+          <t>1,94; 8,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 5,86</t>
+          <t>1,45; 5,63</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,11; 2,44</t>
+          <t>1,12; 2,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,14</t>
+          <t>1,72; 4,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,94</t>
+          <t>1,55; 2,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P21D_2_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21D_2_R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P21D_2_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21D_2_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,84</t>
+          <t>0,0; 5,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 3,11</t>
+          <t>0,16; 3,13</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,81</t>
+          <t>1,64; 5,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,88</t>
+          <t>1,55; 5,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,53</t>
+          <t>1,94; 4,57</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,44</t>
+          <t>0,34; 2,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,56</t>
+          <t>0,73; 2,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 1,99</t>
+          <t>0,7; 1,95</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,45</t>
+          <t>1,57; 5,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,62</t>
+          <t>0,58; 3,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,55</t>
+          <t>1,33; 3,55</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,09</t>
+          <t>0,24; 2,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,94; 8,91</t>
+          <t>2,07; 9,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 5,63</t>
+          <t>1,36; 5,86</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,42</t>
+          <t>1,11; 2,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,1</t>
+          <t>1,69; 4,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,55; 2,95</t>
+          <t>1,6; 2,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P21D_2_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21D_2_R-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>2,7%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,41</t>
+          <t>1,37; 4,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,42</t>
+          <t>1,43; 4,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 3,13</t>
+          <t>1,76; 3,96</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>1,06%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,72</t>
+          <t>0,1; 1,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,51</t>
+          <t>0,77; 2,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,57</t>
+          <t>0,47; 1,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>2,29%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,37</t>
+          <t>1,63; 5,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,41</t>
+          <t>0,61; 3,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,95</t>
+          <t>1,4; 3,61</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,14%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,55</t>
+          <t>0,24; 2,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,33</t>
+          <t>1,71; 7,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,55</t>
+          <t>1,18; 4,54</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>1,9%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,25</t>
+          <t>0,83; 2,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,07; 9,43</t>
+          <t>1,6; 3,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 5,86</t>
+          <t>1,38; 2,57</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,67%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,4%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,11; 2,44</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,69; 4,14</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,6; 2,94</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P21D_2_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21D_2_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,95</t>
+          <t>1,24; 4,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,85</t>
+          <t>1,51; 5,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,96</t>
+          <t>1,65; 4,09</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,96</t>
+          <t>0,13; 2,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,49</t>
+          <t>0,74; 2,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,85</t>
+          <t>0,47; 1,89</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,75</t>
+          <t>1,59; 5,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,31</t>
+          <t>0,68; 3,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,61</t>
+          <t>1,39; 3,65</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,26</t>
+          <t>0,2; 1,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 7,25</t>
+          <t>1,58; 7,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,54</t>
+          <t>1,24; 4,54</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,33</t>
+          <t>0,91; 2,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,47</t>
+          <t>1,63; 3,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,57</t>
+          <t>1,39; 2,53</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, necesitando atención sanitaria dental, no la pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6844</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8441</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>15286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3315; 12545</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4502; 15545</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9362; 23133</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5391</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6375</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11766</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>840; 13260</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3314; 11238</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5145; 20896</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10181</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4929</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15110</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5270; 17753</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2235; 12121</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9192; 24075</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3071</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>16688</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>19759</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>836; 8020</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8171; 39711</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>11439; 41945</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>25487</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>36433</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>61921</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>15063; 37634</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>25945; 56964</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>45105; 82350</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>